--- a/yopmailTestData.xlsx
+++ b/yopmailTestData.xlsx
@@ -5,11 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="EmailFrom" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Message" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Subject" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -38,7 +41,7 @@
     <t xml:space="preserve">jhonny@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Saurav@yopmail.com</t>
+    <t xml:space="preserve">Kaka@yopmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Ignore it, only for testing purpose</t>
@@ -47,16 +50,16 @@
     <t xml:space="preserve">For testing purpose</t>
   </si>
   <si>
-    <t xml:space="preserve">Bob@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jake@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jack@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tommy@yopmail.com</t>
+    <t xml:space="preserve">Bhola@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golu@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhalubai@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinku@yopmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;jhonny@yopmail.com&gt;</t>
@@ -69,7 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -96,25 +99,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val=""/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -173,7 +157,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,15 +174,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -221,13 +197,14 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="22.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.42"/>
   </cols>
@@ -246,11 +223,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -260,50 +237,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="jhonny@yopmail.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="Saurav@yopmail.com"/>
-    <hyperlink ref="A3" r:id="rId3" display="jhonny@yopmail.com"/>
-    <hyperlink ref="B3" r:id="rId4" display="Bob@yopmail.com"/>
-    <hyperlink ref="A4" r:id="rId5" display="jhonny@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId6" display="Jake@yopmail.com"/>
-    <hyperlink ref="A5" r:id="rId7" display="jhonny@yopmail.com"/>
-    <hyperlink ref="B5" r:id="rId8" display="Jack@yopmail.com"/>
-    <hyperlink ref="A6" r:id="rId9" display="jhonny@yopmail.com"/>
-    <hyperlink ref="B6" r:id="rId10" display="Tommy@yopmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="Bhola@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="Golu@yopmail.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="Bhalubai@yopmail.com"/>
+    <hyperlink ref="B6" r:id="rId5" display="Pinku@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -322,13 +286,13 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.01"/>
@@ -352,47 +316,43 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="jhonny@yopmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="Jake@yopmail.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="Bob@yopmail.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="Jack@yopmail.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="Tommy@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="&lt;jhonny@yopmail.com&gt;"/>
+    <hyperlink ref="A3" r:id="rId2" display="Bhola@yopmail.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="Golu@yopmail.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="Bhalubai@yopmail.com"/>
+    <hyperlink ref="A6" r:id="rId5" display="Pinku@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -402,4 +362,110 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="23.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="&lt;jhonny@yopmail.com&gt;"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>